--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0C1C41-05F0-43D8-99BD-02DD2737901B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93E09E9-4140-4791-AA8E-258BA4FC9A89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,7 +513,7 @@
     <t>twotabsearchtextbox</t>
   </si>
   <si>
-    <t>home</t>
+    <t>home_1</t>
   </si>
 </sst>
 </file>
@@ -892,7 +892,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93E09E9-4140-4791-AA8E-258BA4FC9A89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CF18B4-9F15-43D4-A5C1-C6096D481ABD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,7 +513,7 @@
     <t>twotabsearchtextbox</t>
   </si>
   <si>
-    <t>home_1</t>
+    <t>amazon_home</t>
   </si>
 </sst>
 </file>
@@ -892,10 +892,13 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93E09E9-4140-4791-AA8E-258BA4FC9A89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C317EF-EBE6-4C06-8652-9EEEDC7B91FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,7 +513,7 @@
     <t>twotabsearchtextbox</t>
   </si>
   <si>
-    <t>home_1</t>
+    <t>amazon_login</t>
   </si>
 </sst>
 </file>
@@ -892,7 +892,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CF18B4-9F15-43D4-A5C1-C6096D481ABD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF9AFB7-77B1-4A6A-9608-7780FAF0CD47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,7 +513,7 @@
     <t>twotabsearchtextbox</t>
   </si>
   <si>
-    <t>amazon_home</t>
+    <t>amazonhome</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF9AFB7-77B1-4A6A-9608-7780FAF0CD47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2780C7B-BAB2-46CE-8E7C-CF61736ABE29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,7 +513,7 @@
     <t>twotabsearchtextbox</t>
   </si>
   <si>
-    <t>amazonhome</t>
+    <t>amazon_home</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2780C7B-BAB2-46CE-8E7C-CF61736ABE29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B86BAA-F733-46A6-B465-BF253CCCC549}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,7 +513,7 @@
     <t>twotabsearchtextbox</t>
   </si>
   <si>
-    <t>amazon_home</t>
+    <t>amazonhome</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B86BAA-F733-46A6-B465-BF253CCCC549}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C458B92-F40E-43D8-BAE1-5F5CE5B373CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,7 +513,7 @@
     <t>twotabsearchtextbox</t>
   </si>
   <si>
-    <t>amazonhome</t>
+    <t>amazon_home</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B179816D-5E24-4855-818A-0B449DC309D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3584E249-0566-46F3-9E79-8BFA81FFDC83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,7 +513,7 @@
     <t>twotabsearchtextbox</t>
   </si>
   <si>
-    <t>amazon</t>
+    <t>amazon_home</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EAF443-F2A5-4544-82AE-1ACF4B7E8615}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146832FC-216C-4FC2-A1D0-F339404BD8CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,7 +513,7 @@
     <t>twotabsearchtextbox</t>
   </si>
   <si>
-    <t>amazon</t>
+    <t>amazon_homepage</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\excel-version-control\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC86DBC-E744-4358-81A8-BD479134951D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065C1E4D-DDB9-423E-B788-1966F733B592}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Amazon" sheetId="1" r:id="rId1"/>
@@ -144,9 +144,6 @@
     <t>expected_message</t>
   </si>
   <si>
-    <t>Hello, Chase</t>
-  </si>
-  <si>
     <t>your_account</t>
   </si>
   <si>
@@ -210,9 +207,6 @@
     <t>//*[@id="a-page"]/div[1]/div/div[2]/div[2]/a</t>
   </si>
   <si>
-    <t>search_result</t>
-  </si>
-  <si>
     <t>(//div[@data-cel-widget="search_result_::index::"]//a)[2]</t>
   </si>
   <si>
@@ -513,7 +507,13 @@
     <t>twotabsearchtextbox</t>
   </si>
   <si>
-    <t>amazon_home</t>
+    <t>amazon_home_1</t>
+  </si>
+  <si>
+    <t>Hello, Chase 1 testing</t>
+  </si>
+  <si>
+    <t>search_result_!</t>
   </si>
 </sst>
 </file>
@@ -891,11 +891,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="29.19921875" customWidth="1"/>
+    <col min="3" max="3" width="32.296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -922,7 +926,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -936,7 +940,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1034,22 +1038,22 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
         <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F1 A4:F14 A3:C3 E3:F3 A2 C2:D2 F2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F1 A4:F12 A3:C3 E3:F3 A2 C2:D2 F2 A14:F14 A13:B13 D13:F13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1076,10 +1080,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1088,24 +1092,24 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1139,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1151,45 +1155,45 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
         <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
         <v>47</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1223,10 +1227,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1235,21 +1239,21 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
         <v>49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1257,15 +1261,15 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
         <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1299,10 +1303,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1311,21 +1315,21 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
         <v>54</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1341,11 +1345,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.09765625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1361,10 +1368,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1373,13 +1380,13 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1387,10 +1394,10 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1398,10 +1405,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1409,10 +1416,10 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1420,10 +1427,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1431,10 +1438,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1442,10 +1449,10 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1453,17 +1460,17 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:N7" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:N1 A3:N7 A2 C2:N2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1490,10 +1497,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1502,57 +1509,57 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
         <v>68</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
         <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1560,10 +1567,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1571,125 +1578,125 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" t="s">
         <v>96</v>
-      </c>
-      <c r="B15" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1723,10 +1730,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1735,81 +1742,81 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
         <v>114</v>
-      </c>
-      <c r="B8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1843,10 +1850,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1855,97 +1862,97 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
         <v>117</v>
       </c>
-      <c r="B3" t="s">
-        <v>119</v>
-      </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1982,10 +1989,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1994,68 +2001,68 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -2063,43 +2070,43 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -2107,10 +2114,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -2121,7 +2128,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\excel-version-control\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC86DBC-E744-4358-81A8-BD479134951D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A43882-E5D8-4EB6-8ED2-919F4984C897}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Amazon" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="160">
   <si>
     <t>element_type</t>
   </si>
@@ -69,9 +69,6 @@
     <t>textbox</t>
   </si>
   <si>
-    <t>search_bar</t>
-  </si>
-  <si>
     <t>span</t>
   </si>
   <si>
@@ -514,6 +511,15 @@
   </si>
   <si>
     <t>amazon_home</t>
+  </si>
+  <si>
+    <t>Accout name is testing.</t>
+  </si>
+  <si>
+    <t>search_bar_1</t>
+  </si>
+  <si>
+    <t>asus</t>
   </si>
 </sst>
 </file>
@@ -891,11 +897,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="24.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -922,7 +932,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -933,123 +943,126 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="F9" t="s">
         <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
         <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
         <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" t="s">
         <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
         <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F1 A4:F14 A3:C3 E3:F3 A2 C2:D2 F2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F1 A4:F11 A3 E3:F3 A2 C2:D2 F2 A13:F14 A12:B12 D12:F12 C3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1076,10 +1089,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1088,24 +1101,24 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" t="s">
         <v>152</v>
-      </c>
-      <c r="G2" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1139,10 +1152,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1151,45 +1164,45 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
         <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
         <v>47</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1223,10 +1236,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1235,37 +1248,37 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
         <v>49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
         <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1299,10 +1312,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1311,21 +1324,21 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
         <v>54</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1341,11 +1354,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1361,10 +1377,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1373,97 +1389,100 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
         <v>56</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" t="s">
         <v>58</v>
-      </c>
-      <c r="G3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
         <v>60</v>
-      </c>
-      <c r="G4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
         <v>62</v>
-      </c>
-      <c r="G5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
         <v>64</v>
-      </c>
-      <c r="G6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" t="s">
         <v>66</v>
-      </c>
-      <c r="G7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" t="s">
         <v>154</v>
-      </c>
-      <c r="G8" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:N7" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:N2 A4:N7 A3:B3 D3:N3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1490,10 +1509,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1502,194 +1521,194 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
         <v>68</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
         <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
         <v>73</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>74</v>
-      </c>
-      <c r="D4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
         <v>76</v>
-      </c>
-      <c r="D5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
         <v>78</v>
-      </c>
-      <c r="D6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
         <v>80</v>
-      </c>
-      <c r="D7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" t="s">
         <v>82</v>
-      </c>
-      <c r="J8" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
         <v>84</v>
-      </c>
-      <c r="D9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" t="s">
         <v>86</v>
-      </c>
-      <c r="G10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
         <v>88</v>
-      </c>
-      <c r="D11" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
         <v>90</v>
-      </c>
-      <c r="D12" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
         <v>92</v>
-      </c>
-      <c r="D13" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" t="s">
         <v>94</v>
-      </c>
-      <c r="E14" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" t="s">
         <v>96</v>
       </c>
-      <c r="B15" t="s">
+      <c r="G15" t="s">
         <v>97</v>
-      </c>
-      <c r="G15" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
         <v>99</v>
-      </c>
-      <c r="D16" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" t="s">
         <v>101</v>
-      </c>
-      <c r="G17" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1723,10 +1742,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1735,81 +1754,81 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
         <v>103</v>
-      </c>
-      <c r="D2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" t="s">
         <v>105</v>
-      </c>
-      <c r="F3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" t="s">
         <v>107</v>
-      </c>
-      <c r="G4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" t="s">
         <v>109</v>
-      </c>
-      <c r="H5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" t="s">
         <v>111</v>
-      </c>
-      <c r="F6" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
         <v>114</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>115</v>
-      </c>
-      <c r="D8" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1843,10 +1862,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1855,97 +1874,97 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
         <v>117</v>
       </c>
-      <c r="B2" t="s">
-        <v>118</v>
-      </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" t="s">
         <v>120</v>
-      </c>
-      <c r="D4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
         <v>123</v>
-      </c>
-      <c r="D6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
         <v>125</v>
-      </c>
-      <c r="C7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" t="s">
         <v>127</v>
-      </c>
-      <c r="C9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" t="s">
         <v>129</v>
-      </c>
-      <c r="D10" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1982,10 +2001,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1994,134 +2013,134 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" t="s">
         <v>131</v>
-      </c>
-      <c r="F2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" t="s">
         <v>133</v>
-      </c>
-      <c r="F3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" t="s">
         <v>135</v>
-      </c>
-      <c r="F4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" t="s">
         <v>137</v>
-      </c>
-      <c r="F5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" t="s">
         <v>139</v>
-      </c>
-      <c r="F6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" t="s">
         <v>141</v>
-      </c>
-      <c r="F7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" t="s">
         <v>143</v>
-      </c>
-      <c r="F8" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" t="s">
         <v>145</v>
-      </c>
-      <c r="F9" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" t="s">
         <v>147</v>
-      </c>
-      <c r="F10" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" t="s">
         <v>149</v>
-      </c>
-      <c r="D11" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C193EB4C-4488-4D7E-AE9D-39CAC01946D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35C04C0-9B81-4826-A08D-2D46774C83B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="165">
   <si>
     <t>element_type</t>
   </si>
@@ -514,6 +514,27 @@
   </si>
   <si>
     <t>search_bar</t>
+  </si>
+  <si>
+    <t>exceltest</t>
+  </si>
+  <si>
+    <t>ook'ASUSbo</t>
+  </si>
+  <si>
+    <t>d Gen'Echoto_t</t>
+  </si>
+  <si>
+    <t>t the Rich Teach Their Kids About Money That the Poor and Middle Class Do Not'Richdh_d</t>
+  </si>
+  <si>
+    <t>xecution: Achieving Your Wildly Important'Theinesciines</t>
+  </si>
+  <si>
+    <t>el'Googleoketok</t>
+  </si>
+  <si>
+    <t>k Go'Google Pixelbook Go book_goixbook_go</t>
   </si>
 </sst>
 </file>
@@ -1029,6 +1050,9 @@
       <c r="B12" t="s">
         <v>30</v>
       </c>
+      <c r="C12" t="s">
+        <v>158</v>
+      </c>
       <c r="E12" t="s">
         <v>31</v>
       </c>
@@ -1346,7 +1370,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1396,6 +1420,9 @@
       <c r="B2" t="s">
         <v>55</v>
       </c>
+      <c r="C2" t="s">
+        <v>158</v>
+      </c>
       <c r="G2" t="s">
         <v>56</v>
       </c>
@@ -1470,7 +1497,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:N2 A4:N7 A3:B3 D3:N3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:N1 A4:N7 A3:B3 D3:N3 A2:B2 D2:N2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35C04C0-9B81-4826-A08D-2D46774C83B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C06CB95-7595-43FC-95C8-26A5E892167A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="160">
   <si>
     <t>element_type</t>
   </si>
@@ -516,25 +516,10 @@
     <t>search_bar</t>
   </si>
   <si>
-    <t>exceltest</t>
-  </si>
-  <si>
-    <t>ook'ASUSbo</t>
-  </si>
-  <si>
-    <t>d Gen'Echoto_t</t>
-  </si>
-  <si>
-    <t>t the Rich Teach Their Kids About Money That the Poor and Middle Class Do Not'Richdh_d</t>
-  </si>
-  <si>
-    <t>xecution: Achieving Your Wildly Important'Theinesciines</t>
-  </si>
-  <si>
-    <t>el'Googleoketok</t>
-  </si>
-  <si>
-    <t>k Go'Google Pixelbook Go book_goixbook_go</t>
+    <t>exceltesting branch</t>
+  </si>
+  <si>
+    <t>exceltesting_branch</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1036,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E12" t="s">
         <v>31</v>

--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C193EB4C-4488-4D7E-AE9D-39CAC01946D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D50FBB2-AB44-4ABF-A5FB-C77EB3A68A34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Amazon" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="159">
   <si>
     <t>element_type</t>
   </si>
@@ -141,9 +141,6 @@
     <t>expected_message</t>
   </si>
   <si>
-    <t>Hello, Chase</t>
-  </si>
-  <si>
     <t>your_account</t>
   </si>
   <si>
@@ -514,6 +511,12 @@
   </si>
   <si>
     <t>search_bar</t>
+  </si>
+  <si>
+    <t>changing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello, Chase changing </t>
   </si>
 </sst>
 </file>
@@ -891,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -926,7 +929,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -937,10 +940,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1038,22 +1041,22 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
         <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F1 A4:F11 A3 E3:F3 A2 C2:D2 F2 A13:F14 A12:B12 D12:F12 C3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F1 A4:F11 A3 E3:F3 A2 C2:D2 F2 A14:F14 A12:B12 D12:F12 C3 A13:B13 D13:F13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1080,10 +1083,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1092,24 +1095,24 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" t="s">
         <v>151</v>
-      </c>
-      <c r="G2" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1143,10 +1146,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1155,45 +1158,45 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
         <v>43</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
         <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1227,10 +1230,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1239,21 +1242,21 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
         <v>48</v>
-      </c>
-      <c r="G2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1261,15 +1264,15 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1303,10 +1306,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1315,21 +1318,21 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
         <v>53</v>
-      </c>
-      <c r="G2" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1345,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1368,10 +1371,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1380,13 +1383,13 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1394,10 +1397,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
         <v>55</v>
-      </c>
-      <c r="G2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1405,10 +1408,10 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
         <v>57</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1416,10 +1419,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
         <v>59</v>
-      </c>
-      <c r="G4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1427,10 +1430,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" t="s">
         <v>61</v>
-      </c>
-      <c r="G5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1438,10 +1444,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
         <v>63</v>
-      </c>
-      <c r="G6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1449,10 +1455,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
         <v>65</v>
-      </c>
-      <c r="G7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1460,17 +1466,17 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" t="s">
         <v>153</v>
-      </c>
-      <c r="G8" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:N2 A4:N7 A3:B3 D3:N3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:N2 A4:N4 A3:B3 D3:N3 A6:N7 A5:B5 D5:N5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1497,10 +1503,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1509,57 +1515,57 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>68</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
         <v>70</v>
-      </c>
-      <c r="D3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
         <v>72</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
         <v>75</v>
-      </c>
-      <c r="D5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1567,10 +1573,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
         <v>77</v>
-      </c>
-      <c r="D6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1578,125 +1584,125 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
         <v>79</v>
-      </c>
-      <c r="D7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" t="s">
         <v>81</v>
-      </c>
-      <c r="J8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
         <v>83</v>
-      </c>
-      <c r="D9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" t="s">
         <v>85</v>
-      </c>
-      <c r="G10" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
         <v>87</v>
-      </c>
-      <c r="D11" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
         <v>89</v>
-      </c>
-      <c r="D12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
         <v>91</v>
-      </c>
-      <c r="D13" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" t="s">
         <v>93</v>
-      </c>
-      <c r="E14" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
         <v>95</v>
       </c>
-      <c r="B15" t="s">
+      <c r="G15" t="s">
         <v>96</v>
-      </c>
-      <c r="G15" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
         <v>98</v>
-      </c>
-      <c r="D16" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" t="s">
         <v>100</v>
-      </c>
-      <c r="G17" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1730,10 +1736,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1742,81 +1748,81 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
         <v>102</v>
-      </c>
-      <c r="D2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" t="s">
         <v>104</v>
-      </c>
-      <c r="F3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" t="s">
         <v>106</v>
-      </c>
-      <c r="G4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" t="s">
         <v>108</v>
-      </c>
-      <c r="H5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" t="s">
         <v>110</v>
-      </c>
-      <c r="F6" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
         <v>113</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>114</v>
-      </c>
-      <c r="D8" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1850,10 +1856,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1862,97 +1868,97 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
         <v>116</v>
       </c>
-      <c r="B2" t="s">
-        <v>117</v>
-      </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
         <v>119</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" t="s">
         <v>122</v>
-      </c>
-      <c r="D6" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s">
         <v>124</v>
-      </c>
-      <c r="C7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" t="s">
         <v>126</v>
-      </c>
-      <c r="C9" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" t="s">
         <v>128</v>
-      </c>
-      <c r="D10" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1989,10 +1995,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -2001,68 +2007,68 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" t="s">
         <v>130</v>
-      </c>
-      <c r="F2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" t="s">
         <v>132</v>
-      </c>
-      <c r="F3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" t="s">
         <v>134</v>
-      </c>
-      <c r="F4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" t="s">
         <v>136</v>
-      </c>
-      <c r="F5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" t="s">
         <v>138</v>
-      </c>
-      <c r="F6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -2070,43 +2076,43 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" t="s">
         <v>140</v>
-      </c>
-      <c r="F7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" t="s">
         <v>142</v>
-      </c>
-      <c r="F8" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" t="s">
         <v>144</v>
-      </c>
-      <c r="F9" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" t="s">
         <v>146</v>
-      </c>
-      <c r="F10" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -2114,10 +2120,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" t="s">
         <v>148</v>
-      </c>
-      <c r="D11" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -2128,7 +2134,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D50FBB2-AB44-4ABF-A5FB-C77EB3A68A34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC9003C-7C47-40E0-A5FA-C4E675C22A27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Amazon" sheetId="1" r:id="rId1"/>
@@ -513,10 +513,10 @@
     <t>search_bar</t>
   </si>
   <si>
-    <t>changing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hello, Chase changing </t>
+    <t>Hello, Chase changing xml</t>
+  </si>
+  <si>
+    <t>changing xml</t>
   </si>
 </sst>
 </file>
@@ -894,7 +894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1041,7 +1041,7 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1348,7 +1348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1433,7 +1433,7 @@
         <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G5" t="s">
         <v>61</v>

--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64EFF50-0BFE-4A8D-9635-368E92D52287}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8280E7-4F01-47F2-944D-58518DFE1951}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="165">
   <si>
     <t>element_type</t>
   </si>
@@ -141,9 +141,6 @@
     <t>expected_message</t>
   </si>
   <si>
-    <t>Hello, Chase</t>
-  </si>
-  <si>
     <t>your_account</t>
   </si>
   <si>
@@ -510,10 +507,34 @@
     <t>twotabsearchtextbox</t>
   </si>
   <si>
-    <t>amazon_home</t>
-  </si>
-  <si>
     <t>search_bar</t>
+  </si>
+  <si>
+    <t>Hello, Chase testing exceltest</t>
+  </si>
+  <si>
+    <t>amazon_home_excel</t>
+  </si>
+  <si>
+    <t>exceltest</t>
+  </si>
+  <si>
+    <t>ook'ASUSbo</t>
+  </si>
+  <si>
+    <t>d Gen'Echoto_t</t>
+  </si>
+  <si>
+    <t>t the Rich Teach Their Kids About Money That the Poor and Middle Class Do Not'Richdh_d</t>
+  </si>
+  <si>
+    <t>xecution: Achieving Your Wildly Important'Theinesciines</t>
+  </si>
+  <si>
+    <t>el'Googleoketok</t>
+  </si>
+  <si>
+    <t>k Go'Google Pixelbook Go book_goixbook_go</t>
   </si>
 </sst>
 </file>
@@ -892,7 +913,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -926,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -937,10 +958,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1038,22 +1059,22 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
         <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F1 A4:F11 A3 E3:F3 A2 C2:D2 F2 A13:F14 A12:B12 D12:F12 C3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F1 A4:F11 A3 E3:F3 A2 C2:D2 F2 A14:F14 A12:B12 D12:F12 C3 A13:B13 D13:F13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1080,10 +1101,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1092,24 +1113,24 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" t="s">
         <v>151</v>
-      </c>
-      <c r="G2" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1143,10 +1164,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1155,45 +1176,45 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
         <v>43</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
         <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1227,10 +1248,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1239,21 +1260,21 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
         <v>48</v>
-      </c>
-      <c r="G2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1261,15 +1282,15 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1303,10 +1324,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1315,21 +1336,21 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
         <v>53</v>
-      </c>
-      <c r="G2" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1368,10 +1389,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1380,13 +1401,13 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1394,10 +1415,13 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" t="s">
         <v>55</v>
-      </c>
-      <c r="G2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1405,10 +1429,10 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
         <v>57</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1416,10 +1440,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
         <v>59</v>
-      </c>
-      <c r="G4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1427,10 +1451,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" t="s">
         <v>61</v>
-      </c>
-      <c r="G5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1438,10 +1462,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
         <v>63</v>
-      </c>
-      <c r="G6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1449,10 +1473,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
         <v>65</v>
-      </c>
-      <c r="G7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1460,10 +1484,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" t="s">
         <v>153</v>
-      </c>
-      <c r="G8" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1497,10 +1521,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1509,57 +1533,57 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>68</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
         <v>70</v>
-      </c>
-      <c r="D3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
         <v>72</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
         <v>75</v>
-      </c>
-      <c r="D5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1567,10 +1591,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
         <v>77</v>
-      </c>
-      <c r="D6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1578,125 +1602,125 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
         <v>79</v>
-      </c>
-      <c r="D7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" t="s">
         <v>81</v>
-      </c>
-      <c r="J8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
         <v>83</v>
-      </c>
-      <c r="D9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" t="s">
         <v>85</v>
-      </c>
-      <c r="G10" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
         <v>87</v>
-      </c>
-      <c r="D11" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
         <v>89</v>
-      </c>
-      <c r="D12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
         <v>91</v>
-      </c>
-      <c r="D13" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" t="s">
         <v>93</v>
-      </c>
-      <c r="E14" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
         <v>95</v>
       </c>
-      <c r="B15" t="s">
+      <c r="G15" t="s">
         <v>96</v>
-      </c>
-      <c r="G15" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
         <v>98</v>
-      </c>
-      <c r="D16" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" t="s">
         <v>100</v>
-      </c>
-      <c r="G17" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1730,10 +1754,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1742,81 +1766,81 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
         <v>102</v>
-      </c>
-      <c r="D2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" t="s">
         <v>104</v>
-      </c>
-      <c r="F3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" t="s">
         <v>106</v>
-      </c>
-      <c r="G4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" t="s">
         <v>108</v>
-      </c>
-      <c r="H5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" t="s">
         <v>110</v>
-      </c>
-      <c r="F6" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
         <v>113</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>114</v>
-      </c>
-      <c r="D8" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1850,10 +1874,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1862,97 +1886,97 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
         <v>116</v>
       </c>
-      <c r="B2" t="s">
-        <v>117</v>
-      </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
         <v>119</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" t="s">
         <v>122</v>
-      </c>
-      <c r="D6" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s">
         <v>124</v>
-      </c>
-      <c r="C7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" t="s">
         <v>126</v>
-      </c>
-      <c r="C9" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" t="s">
         <v>128</v>
-      </c>
-      <c r="D10" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1989,10 +2013,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -2001,68 +2025,68 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" t="s">
         <v>130</v>
-      </c>
-      <c r="F2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" t="s">
         <v>132</v>
-      </c>
-      <c r="F3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" t="s">
         <v>134</v>
-      </c>
-      <c r="F4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" t="s">
         <v>136</v>
-      </c>
-      <c r="F5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" t="s">
         <v>138</v>
-      </c>
-      <c r="F6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -2070,43 +2094,43 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" t="s">
         <v>140</v>
-      </c>
-      <c r="F7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" t="s">
         <v>142</v>
-      </c>
-      <c r="F8" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" t="s">
         <v>144</v>
-      </c>
-      <c r="F9" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" t="s">
         <v>146</v>
-      </c>
-      <c r="F10" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -2114,10 +2138,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" t="s">
         <v>148</v>
-      </c>
-      <c r="D11" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -2128,7 +2152,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64EFF50-0BFE-4A8D-9635-368E92D52287}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9D9D06-DA22-4B81-8539-DA742DC62114}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="159">
   <si>
     <t>element_type</t>
   </si>
@@ -514,6 +514,9 @@
   </si>
   <si>
     <t>search_bar</t>
+  </si>
+  <si>
+    <t>main updates</t>
   </si>
 </sst>
 </file>
@@ -892,7 +895,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -961,6 +964,9 @@
       <c r="B5" t="s">
         <v>13</v>
       </c>
+      <c r="C5" t="s">
+        <v>158</v>
+      </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
@@ -1053,7 +1059,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F1 A4:F11 A3 E3:F3 A2 C2:D2 F2 A13:F14 A12:B12 D12:F12 C3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F1 A4:F4 A3 E3:F3 A2 C2:D2 F2 A13:F14 A12:B12 D12:F12 C3 A6:F11 A5:B5 D5:F5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1346,7 +1352,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1440,6 +1446,9 @@
       <c r="B6" t="s">
         <v>63</v>
       </c>
+      <c r="C6" t="s">
+        <v>158</v>
+      </c>
       <c r="G6" t="s">
         <v>64</v>
       </c>
@@ -1470,7 +1479,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:N1 A4:N7 A3:B3 D3:N3 A2:B2 D2:N2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:N1 A4:N5 A3:B3 D3:N3 A2:B2 D2:N2 A7:N7 A6:B6 D6:N6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814EE1A9-81B3-4BE4-BF37-AD8901AF07DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD5B040-7B80-4DCC-A788-CB3508E539A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Amazon" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="159">
   <si>
     <t>element_type</t>
   </si>
@@ -514,6 +514,9 @@
   </si>
   <si>
     <t>amazon_home</t>
+  </si>
+  <si>
+    <t>new commit from exceltest</t>
   </si>
 </sst>
 </file>
@@ -891,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -994,6 +997,9 @@
       <c r="B8" t="s">
         <v>21</v>
       </c>
+      <c r="C8" t="s">
+        <v>158</v>
+      </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
@@ -1053,7 +1059,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F1 A4:F11 A3 E3:F3 A2 C2:D2 F2 A14:F14 A12:B12 D12:F12 C3 A13:B13 D13:F13" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F1 A4:F7 A3 E3:F3 A2 C2:D2 F2 A14:F14 A12:B12 D12:F12 C3 A13:B13 D13:F13 A9:F11 A8:B8 D8:F8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1343,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1418,6 +1424,9 @@
       <c r="B4" t="s">
         <v>58</v>
       </c>
+      <c r="C4" t="s">
+        <v>158</v>
+      </c>
       <c r="G4" t="s">
         <v>59</v>
       </c>
@@ -1464,13 +1473,18 @@
       </c>
       <c r="G8" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:N1 A4:N5 A3:B3 D3:N3 A2:B2 D2:N2 A7:N7 A6:B6 D6:N6" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:N1 A5:N5 A3:B3 D3:N3 A2:B2 D2:N2 A7:N7 A6:B6 D6:N6 A4:B4 D4:N4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD5B040-7B80-4DCC-A788-CB3508E539A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903195CD-BBEA-4AB4-AE97-3E49ABD0D05A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="160">
   <si>
     <t>element_type</t>
   </si>
@@ -517,6 +517,9 @@
   </si>
   <si>
     <t>new commit from exceltest</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1355,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1401,6 +1404,9 @@
       </c>
       <c r="B2" t="s">
         <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>159</v>
       </c>
       <c r="G2" t="s">
         <v>55</v>

--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD5B040-7B80-4DCC-A788-CB3508E539A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A617652-5489-4FE7-97C8-EDA4C3815F83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="161">
   <si>
     <t>element_type</t>
   </si>
@@ -517,6 +517,12 @@
   </si>
   <si>
     <t>new commit from exceltest</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>//*[contains]</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1358,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1478,6 +1484,12 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>158</v>
+      </c>
+      <c r="C9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ACD6AA-EB06-4D9C-A66A-11860C75F6BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BA82F6-8EAF-4090-AFD6-2D0971A0DAD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Amazon" sheetId="1" r:id="rId1"/>
@@ -510,10 +510,10 @@
     <t>search_bar</t>
   </si>
   <si>
-    <t>amazon_home</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hello, Chase </t>
+  </si>
+  <si>
+    <t>amazon_home1</t>
   </si>
 </sst>
 </file>
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -926,7 +926,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1038,7 +1038,7 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1345,7 +1345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BA82F6-8EAF-4090-AFD6-2D0971A0DAD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B7D5ED-DB00-4723-9FF1-97FD400FC412}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,7 +513,7 @@
     <t xml:space="preserve">Hello, Chase </t>
   </si>
   <si>
-    <t>amazon_home1</t>
+    <t>amazon_home</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BA82F6-8EAF-4090-AFD6-2D0971A0DAD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D796047A-6E22-4C00-93B1-5000A816E3D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="159">
   <si>
     <t>element_type</t>
   </si>
@@ -514,6 +514,9 @@
   </si>
   <si>
     <t>amazon_home1</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -892,7 +895,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -939,6 +942,9 @@
       <c r="B3" t="s">
         <v>155</v>
       </c>
+      <c r="C3" t="s">
+        <v>158</v>
+      </c>
       <c r="D3" t="s">
         <v>154</v>
       </c>
@@ -1053,7 +1059,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F1 A4:F7 A3 E3:F3 A2 C2:D2 F2 A14:F14 A12:B12 D12:F12 C3 A13:B13 D13:F13 A9:F11 A8:B8 D8:F8" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F1 A4:F7 A3 E3:F3 A2 C2:D2 F2 A14:F14 A12:B12 D12:F12 A13:B13 D13:F13 A9:F11 A8:B8 D8:F8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D796047A-6E22-4C00-93B1-5000A816E3D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD63A058-03AA-4E72-B2B6-E22F26308494}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="158">
   <si>
     <t>element_type</t>
   </si>
@@ -514,9 +514,6 @@
   </si>
   <si>
     <t>amazon_home1</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
@@ -942,9 +939,6 @@
       <c r="B3" t="s">
         <v>155</v>
       </c>
-      <c r="C3" t="s">
-        <v>158</v>
-      </c>
       <c r="D3" t="s">
         <v>154</v>
       </c>

--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD63A058-03AA-4E72-B2B6-E22F26308494}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC46FEB4-5B63-4C2E-BE6B-67181AEEC98D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="159">
   <si>
     <t>element_type</t>
   </si>
@@ -514,6 +514,9 @@
   </si>
   <si>
     <t>amazon_home1</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -939,6 +942,9 @@
       <c r="B3" t="s">
         <v>155</v>
       </c>
+      <c r="C3" t="s">
+        <v>158</v>
+      </c>
       <c r="D3" t="s">
         <v>154</v>
       </c>

--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC46FEB4-5B63-4C2E-BE6B-67181AEEC98D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA988E3-14A7-4AD4-962E-A0284270ABF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,23 +24,12 @@
     <sheet name="CheckOutPage" sheetId="9" r:id="rId9"/>
     <sheet name="Results" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="160">
   <si>
     <t>element_type</t>
   </si>
@@ -69,12 +58,24 @@
     <t>textbox</t>
   </si>
   <si>
+    <t>search_bar</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>twotabsearchtextbox</t>
+  </si>
+  <si>
     <t>span</t>
   </si>
   <si>
     <t>search_button</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>nav-search-submit-text</t>
   </si>
   <si>
@@ -141,6 +142,9 @@
     <t>expected_message</t>
   </si>
   <si>
+    <t xml:space="preserve">Hello, Chase </t>
+  </si>
+  <si>
     <t>your_account</t>
   </si>
   <si>
@@ -240,6 +244,12 @@
     <t>(//*[contains(text(),'Google Pixelbook')])[1]</t>
   </si>
   <si>
+    <t>google_pixelbook_go</t>
+  </si>
+  <si>
+    <t>(//*[contains(text(),'Google Pixelbook Go -')])[1]</t>
+  </si>
+  <si>
     <t>div</t>
   </si>
   <si>
@@ -498,25 +508,7 @@
     <t>//*[@id="flt-app"]/div[2]/main[4]/div[7]/div[1]/div[5]/div[1]/ol/li/div/div[1]/div[2]/div[1]/div[1]/div[5]/div[1]</t>
   </si>
   <si>
-    <t>google_pixelbook_go</t>
-  </si>
-  <si>
-    <t>(//*[contains(text(),'Google Pixelbook Go -')])[1]</t>
-  </si>
-  <si>
-    <t>twotabsearchtextbox</t>
-  </si>
-  <si>
-    <t>search_bar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hello, Chase </t>
-  </si>
-  <si>
-    <t>amazon_home1</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>amazon_home</t>
   </si>
 </sst>
 </file>
@@ -525,8 +517,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -553,13 +545,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -582,44 +574,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -669,9 +661,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -727,166 +719,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -895,13 +863,12 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="24.3984375" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -929,7 +896,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -940,127 +907,195 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:F1 A4:F7 A3 E3:F3 A2 C2:D2 F2 A14:F14 A12:B12 D12:F12 A13:B13 D13:F13 A9:F11 A8:B8 D8:F8" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1070,7 +1105,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1086,10 +1121,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1098,32 +1133,40 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>157</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:K2" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1133,7 +1176,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1149,10 +1192,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1161,53 +1204,100 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
       </c>
       <c r="D2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>36</v>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:K5" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1217,7 +1307,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1233,10 +1323,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1245,45 +1335,65 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:K4" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1293,7 +1403,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1309,10 +1419,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1321,29 +1431,40 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:K2" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1351,14 +1472,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="15.296875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1374,10 +1490,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1386,98 +1502,178 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:N1 A5:N5 A3:B3 D3:N3 A2:B2 D2:N2 A7:N7 A6:B6 D6:N6 A4:B4 D4:N4" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1487,7 +1683,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1503,10 +1699,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1515,202 +1711,312 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>97</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>99</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>102</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:N18" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1720,7 +2026,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1736,10 +2042,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1748,89 +2054,142 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:L8" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1840,7 +2199,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1856,10 +2215,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1868,108 +2227,149 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>127</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>128</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>127</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>134</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId2"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:L10" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1979,7 +2379,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1995,10 +2395,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -2007,141 +2407,224 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>140</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>142</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>146</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>148</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>150</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>152</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>154</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:L12" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -1,35 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA988E3-14A7-4AD4-962E-A0284270ABF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Amazon" sheetId="1" r:id="rId1"/>
-    <sheet name="SecurityPage" sheetId="2" r:id="rId2"/>
-    <sheet name="NameChange" sheetId="3" r:id="rId3"/>
-    <sheet name="AccountPage" sheetId="4" r:id="rId4"/>
-    <sheet name="SearchPage" sheetId="5" r:id="rId5"/>
-    <sheet name="ProductPage" sheetId="6" r:id="rId6"/>
-    <sheet name="OrderCartPage" sheetId="7" r:id="rId7"/>
-    <sheet name="LoginPage" sheetId="8" r:id="rId8"/>
-    <sheet name="CheckOutPage" sheetId="9" r:id="rId9"/>
-    <sheet name="Results" sheetId="10" r:id="rId10"/>
+    <sheet name="Amazon" r:id="rId3" sheetId="1"/>
+    <sheet name="SecurityPage" r:id="rId4" sheetId="2"/>
+    <sheet name="NameChange" r:id="rId5" sheetId="3"/>
+    <sheet name="AccountPage" r:id="rId6" sheetId="4"/>
+    <sheet name="SearchPage" r:id="rId7" sheetId="5"/>
+    <sheet name="ProductPage" r:id="rId8" sheetId="6"/>
+    <sheet name="OrderCartPage" r:id="rId9" sheetId="7"/>
+    <sheet name="LoginPage" r:id="rId10" sheetId="8"/>
+    <sheet name="CheckOutPage" r:id="rId11" sheetId="9"/>
+    <sheet name="Results" r:id="rId12" sheetId="10"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="160">
   <si>
     <t>element_type</t>
   </si>
@@ -52,6 +44,9 @@
     <t>data</t>
   </si>
   <si>
+    <t>amazon_home</t>
+  </si>
+  <si>
     <t>http://www.amazon.com</t>
   </si>
   <si>
@@ -506,18 +501,16 @@
   </si>
   <si>
     <t>//*[@id="flt-app"]/div[2]/main[4]/div[7]/div[1]/div[5]/div[1]/ol/li/div/div[1]/div[2]/div[1]/div[1]/div[5]/div[1]</t>
-  </si>
-  <si>
-    <t>amazon_home</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -529,7 +522,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -547,331 +540,18 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -891,223 +571,223 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1121,10 +801,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1133,52 +813,52 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1192,10 +872,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1204,112 +884,112 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>42</v>
       </c>
-      <c r="J1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1323,10 +1003,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1335,77 +1015,77 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1419,10 +1099,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1431,52 +1111,52 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1490,10 +1170,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1502,190 +1182,190 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1699,10 +1379,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1711,324 +1391,324 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>74</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>73</v>
-      </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
         <v>79</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>78</v>
-      </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>102</v>
-      </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2042,10 +1722,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -2054,154 +1734,154 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2215,10 +1895,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -2227,161 +1907,161 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>123</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>122</v>
-      </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>128</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>127</v>
-      </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2395,10 +2075,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -2407,224 +2087,224 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E89834-3FE4-4D60-81B9-1314A2E65662}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E8B3F4-A6C1-483E-BC2F-E18D629F035B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,7 +508,7 @@
     <t>//*[@id="flt-app"]/div[2]/main[4]/div[7]/div[1]/div[5]/div[1]/ol/li/div/div[1]/div[2]/div[1]/div[1]/div[5]/div[1]</t>
   </si>
   <si>
-    <t>amazon_home</t>
+    <t>amazon_homepage</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ngtpui\excel-version-control\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E89834-3FE4-4D60-81B9-1314A2E65662}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F57D711-1489-4C25-83EA-660A8A30EE40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,7 +508,7 @@
     <t>//*[@id="flt-app"]/div[2]/main[4]/div[7]/div[1]/div[5]/div[1]/ol/li/div/div[1]/div[2]/div[1]/div[1]/div[5]/div[1]</t>
   </si>
   <si>
-    <t>amazon_home</t>
+    <t>amazon_home_url</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="160">
   <si>
     <t>element_type</t>
   </si>
@@ -137,7 +137,7 @@
     <t>expected_message</t>
   </si>
   <si>
-    <t xml:space="preserve">Hello, Chase </t>
+    <t>Hello, Chase testing</t>
   </si>
   <si>
     <t>your_account</t>
@@ -663,15 +663,18 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
       <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
         <v>27</v>
       </c>
     </row>

--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -137,7 +137,7 @@
     <t>expected_message</t>
   </si>
   <si>
-    <t>Hello, Chase testing</t>
+    <t>Hello, Chase testing no conflicts</t>
   </si>
   <si>
     <t>your_account</t>
@@ -700,7 +700,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>

--- a/src/test/resources/Amazon.xlsx
+++ b/src/test/resources/Amazon.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3107" uniqueCount="161">
   <si>
     <t>element_type</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>//*[@id="nav-al-your-account"]/a[2]</t>
+  </si>
+  <si>
+    <t>//*[@id="test"]</t>
   </si>
   <si>
     <t>class</t>
@@ -545,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -775,6 +778,23 @@
       </c>
       <c r="E14" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -804,10 +824,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -816,13 +836,13 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -830,7 +850,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -845,7 +865,7 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -875,10 +895,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -887,13 +907,13 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -901,13 +921,13 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -915,7 +935,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -930,7 +950,7 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -938,7 +958,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -953,7 +973,7 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -961,7 +981,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -976,7 +996,7 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1006,10 +1026,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1018,13 +1038,13 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -1032,7 +1052,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -1047,7 +1067,7 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1058,7 +1078,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -1066,13 +1086,13 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1102,10 +1122,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1114,13 +1134,13 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -1128,7 +1148,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -1143,7 +1163,7 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1173,10 +1193,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1185,13 +1205,13 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -1199,7 +1219,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -1214,7 +1234,7 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -1222,7 +1242,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -1237,7 +1257,7 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1245,7 +1265,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -1260,7 +1280,7 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1268,7 +1288,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -1283,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -1291,7 +1311,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -1306,7 +1326,7 @@
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -1314,7 +1334,7 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -1329,7 +1349,7 @@
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -1337,7 +1357,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1352,7 +1372,7 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1382,10 +1402,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1394,41 +1414,41 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -1436,27 +1456,27 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -1464,13 +1484,13 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
@@ -1478,13 +1498,13 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
@@ -1492,7 +1512,7 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1516,7 +1536,7 @@
         <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -1524,13 +1544,13 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
@@ -1538,7 +1558,7 @@
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -1553,7 +1573,7 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
@@ -1561,13 +1581,13 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12">
@@ -1575,13 +1595,13 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13">
@@ -1589,13 +1609,13 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -1603,7 +1623,7 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -1612,15 +1632,15 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -1635,7 +1655,7 @@
         <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
@@ -1643,13 +1663,13 @@
         <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17">
@@ -1657,7 +1677,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
@@ -1672,7 +1692,7 @@
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18">
@@ -1680,7 +1700,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
@@ -1695,7 +1715,7 @@
         <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1725,10 +1745,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1737,27 +1757,27 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
@@ -1765,7 +1785,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -1777,7 +1797,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4">
@@ -1785,7 +1805,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -1800,7 +1820,7 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5">
@@ -1808,7 +1828,7 @@
         <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -1826,7 +1846,7 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6">
@@ -1834,7 +1854,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -1846,7 +1866,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7">
@@ -1854,21 +1874,21 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1898,10 +1918,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1910,21 +1930,21 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -1936,15 +1956,15 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -1956,7 +1976,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
@@ -1964,13 +1984,13 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5">
@@ -1978,13 +1998,13 @@
         <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6">
@@ -1992,13 +2012,13 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7">
@@ -2006,10 +2026,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8">
@@ -2017,13 +2037,13 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9">
@@ -2031,10 +2051,10 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10">
@@ -2042,13 +2062,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2078,10 +2098,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -2090,21 +2110,21 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -2116,15 +2136,15 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -2136,15 +2156,15 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -2156,15 +2176,15 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -2176,15 +2196,15 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -2196,7 +2216,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7">
@@ -2204,7 +2224,7 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -2216,15 +2236,15 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -2236,15 +2256,15 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -2256,15 +2276,15 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -2276,7 +2296,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11">
@@ -2284,13 +2304,13 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12">
@@ -2304,7 +2324,7 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
